--- a/Test/Lawnmower/T2/Sensors_data_1000033.xlsx
+++ b/Test/Lawnmower/T2/Sensors_data_1000033.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,16 +475,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.8418306130336268</v>
+        <v>0.985805333875229</v>
       </c>
       <c r="D2" t="n">
-        <v>0.005453059681542062</v>
+        <v>0.0008353394741742933</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0742162055407864</v>
+        <v>0.09214393011410804</v>
       </c>
       <c r="F2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -500,13 +500,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.7661520554771414</v>
+        <v>0.9779772269640048</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01005310736165312</v>
+        <v>0.0006333567407976905</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0782853377128403</v>
+        <v>0.06661489004664661</v>
       </c>
       <c r="F3" t="n">
         <v>5</v>
@@ -525,18 +525,68 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.9668722387900189</v>
+        <v>0.9391036882836046</v>
       </c>
       <c r="D4" t="n">
-        <v>0.002513887175703622</v>
+        <v>0.003173745273507261</v>
       </c>
       <c r="E4" t="n">
-        <v>0.34145351817252</v>
+        <v>0.02081344230549115</v>
       </c>
       <c r="F4" t="n">
         <v>5</v>
       </c>
       <c r="G4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>s4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0.9766512513828595</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.0009777073175038233</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.007375311039879262</v>
+      </c>
+      <c r="F5" t="n">
+        <v>4</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>s5</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0.789918427106842</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.007201417516341898</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.02903089821851212</v>
+      </c>
+      <c r="F6" t="n">
+        <v>5</v>
+      </c>
+      <c r="G6" t="n">
         <v>0</v>
       </c>
     </row>
